--- a/r4-core-master/StructureDefinition-AustrianAddressAdditionalInformation.xlsx
+++ b/r4-core-master/StructureDefinition-AustrianAddressAdditionalInformation.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="192" uniqueCount="67">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="192" uniqueCount="69">
   <si>
     <t>Path</t>
   </si>
@@ -137,7 +137,10 @@
     <t>*</t>
   </si>
   <si>
-    <t>An Extension</t>
+    <t>Austrian Address Additional Information</t>
+  </si>
+  <si>
+    <t>Additional Information part of the Austrian Address</t>
   </si>
   <si>
     <t xml:space="preserve">ele-1
@@ -175,6 +178,9 @@
   <si>
     <t xml:space="preserve">Extension
 </t>
+  </si>
+  <si>
+    <t>An Extension</t>
   </si>
   <si>
     <t xml:space="preserve">value:url}
@@ -390,7 +396,7 @@
     <col min="8" max="8" width="13.2578125" customWidth="true" bestFit="true"/>
     <col min="9" max="9" width="14.44140625" customWidth="true" bestFit="true"/>
     <col min="10" max="10" width="20.703125" customWidth="true" bestFit="true"/>
-    <col min="11" max="11" width="37.171875" customWidth="true" bestFit="true"/>
+    <col min="11" max="11" width="37.68359375" customWidth="true" bestFit="true"/>
     <col min="12" max="12" width="100.703125" customWidth="true" bestFit="true"/>
     <col min="13" max="13" width="100.703125" customWidth="true" bestFit="true"/>
     <col min="14" max="14" width="100.703125" customWidth="true" bestFit="true"/>
@@ -556,10 +562,10 @@
         <v>37</v>
       </c>
       <c r="K2" t="s" s="2">
-        <v>36</v>
+        <v>40</v>
       </c>
       <c r="L2" t="s" s="2">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="M2" s="2"/>
       <c r="N2" s="2"/>
@@ -619,10 +625,10 @@
         <v>39</v>
       </c>
       <c r="AH2" t="s" s="2">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="AI2" t="s" s="2">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="AJ2" t="s" s="2">
         <v>37</v>
@@ -630,7 +636,7 @@
     </row>
     <row r="3" hidden="true">
       <c r="A3" t="s" s="2">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="B3" s="2"/>
       <c r="C3" t="s" s="2">
@@ -641,7 +647,7 @@
         <v>38</v>
       </c>
       <c r="F3" t="s" s="2">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="G3" t="s" s="2">
         <v>37</v>
@@ -653,13 +659,13 @@
         <v>37</v>
       </c>
       <c r="J3" t="s" s="2">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="K3" t="s" s="2">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="L3" t="s" s="2">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="M3" s="2"/>
       <c r="N3" s="2"/>
@@ -710,13 +716,13 @@
         <v>37</v>
       </c>
       <c r="AE3" t="s" s="2">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="AF3" t="s" s="2">
         <v>38</v>
       </c>
       <c r="AG3" t="s" s="2">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="AH3" t="s" s="2">
         <v>37</v>
@@ -725,12 +731,12 @@
         <v>37</v>
       </c>
       <c r="AJ3" t="s" s="2">
-        <v>49</v>
+        <v>50</v>
       </c>
     </row>
     <row r="4" hidden="true">
       <c r="A4" t="s" s="2">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="B4" s="2"/>
       <c r="C4" t="s" s="2">
@@ -753,13 +759,13 @@
         <v>37</v>
       </c>
       <c r="J4" t="s" s="2">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="K4" t="s" s="2">
         <v>36</v>
       </c>
       <c r="L4" t="s" s="2">
-        <v>40</v>
+        <v>53</v>
       </c>
       <c r="M4" s="2"/>
       <c r="N4" s="2"/>
@@ -798,19 +804,19 @@
         <v>37</v>
       </c>
       <c r="AA4" t="s" s="2">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="AB4" t="s" s="2">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="AC4" t="s" s="2">
         <v>37</v>
       </c>
       <c r="AD4" t="s" s="2">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="AE4" t="s" s="2">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="AF4" t="s" s="2">
         <v>38</v>
@@ -822,7 +828,7 @@
         <v>37</v>
       </c>
       <c r="AI4" t="s" s="2">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="AJ4" t="s" s="2">
         <v>37</v>
@@ -830,7 +836,7 @@
     </row>
     <row r="5" hidden="true">
       <c r="A5" t="s" s="2">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="B5" s="2"/>
       <c r="C5" t="s" s="2">
@@ -838,10 +844,10 @@
       </c>
       <c r="D5" s="2"/>
       <c r="E5" t="s" s="2">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F5" t="s" s="2">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="G5" t="s" s="2">
         <v>37</v>
@@ -853,16 +859,16 @@
         <v>37</v>
       </c>
       <c r="J5" t="s" s="2">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="K5" t="s" s="2">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="L5" t="s" s="2">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="M5" t="s" s="2">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="N5" s="2"/>
       <c r="O5" t="s" s="2">
@@ -870,7 +876,7 @@
       </c>
       <c r="P5" s="2"/>
       <c r="Q5" t="s" s="2">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="R5" t="s" s="2">
         <v>37</v>
@@ -912,13 +918,13 @@
         <v>37</v>
       </c>
       <c r="AE5" t="s" s="2">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="AF5" t="s" s="2">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="AG5" t="s" s="2">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="AH5" t="s" s="2">
         <v>37</v>
@@ -927,12 +933,12 @@
         <v>37</v>
       </c>
       <c r="AJ5" t="s" s="2">
-        <v>62</v>
+        <v>64</v>
       </c>
     </row>
     <row r="6" hidden="true">
       <c r="A6" t="s" s="2">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="B6" s="2"/>
       <c r="C6" t="s" s="2">
@@ -940,10 +946,10 @@
       </c>
       <c r="D6" s="2"/>
       <c r="E6" t="s" s="2">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F6" t="s" s="2">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="G6" t="s" s="2">
         <v>37</v>
@@ -955,13 +961,13 @@
         <v>37</v>
       </c>
       <c r="J6" t="s" s="2">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="K6" t="s" s="2">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="L6" t="s" s="2">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="M6" s="2"/>
       <c r="N6" s="2"/>
@@ -1012,22 +1018,22 @@
         <v>37</v>
       </c>
       <c r="AE6" t="s" s="2">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="AF6" t="s" s="2">
         <v>38</v>
       </c>
       <c r="AG6" t="s" s="2">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="AH6" t="s" s="2">
         <v>37</v>
       </c>
       <c r="AI6" t="s" s="2">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="AJ6" t="s" s="2">
-        <v>62</v>
+        <v>64</v>
       </c>
     </row>
   </sheetData>
